--- a/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 12,99</t>
+          <t>-4,16; 12,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 18,15</t>
+          <t>1,83; 17,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 5,15</t>
+          <t>-11,36; 4,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 47,75</t>
+          <t>-12,06; 46,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 43,07</t>
+          <t>3,53; 41,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 12,35</t>
+          <t>-21,63; 10,39</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 19,2</t>
+          <t>7,1; 19,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 15,46</t>
+          <t>2,99; 15,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 16,69</t>
+          <t>4,18; 17,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 2,24</t>
+          <t>-8,73; 2,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 49,56</t>
+          <t>14,9; 50,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 38,54</t>
+          <t>6,72; 40,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 47,73</t>
+          <t>9,91; 48,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 3,01</t>
+          <t>-10,65; 3,35</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 20,38</t>
+          <t>5,34; 20,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 18,35</t>
+          <t>2,57; 19,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 17,44</t>
+          <t>2,4; 17,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 1,05</t>
+          <t>-11,88; 1,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 75,03</t>
+          <t>15,34; 76,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 53,16</t>
+          <t>6,07; 57,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 55,23</t>
+          <t>6,23; 54,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 1,73</t>
+          <t>-16,36; 1,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 22,09</t>
+          <t>7,58; 21,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 17,6</t>
+          <t>5,54; 17,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 17,48</t>
+          <t>3,3; 17,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -0,68</t>
+          <t>-18,28; -0,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 70,8</t>
+          <t>19,54; 68,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 44,35</t>
+          <t>12,3; 43,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 45,94</t>
+          <t>7,29; 46,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,86; -1,24</t>
+          <t>-26,77; -1,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 23,07</t>
+          <t>3,2; 22,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 22,24</t>
+          <t>2,97; 22,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 14,4</t>
+          <t>-3,84; 15,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,65</t>
+          <t>-4,62; 2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 63,6</t>
+          <t>6,91; 61,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 50,89</t>
+          <t>5,6; 51,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 35,94</t>
+          <t>-7,64; 39,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,86</t>
+          <t>-4,84; 2,74</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 12,09</t>
+          <t>-4,35; 13,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 13,8</t>
+          <t>-2,96; 13,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 19,53</t>
+          <t>2,71; 19,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 6,27</t>
+          <t>-7,39; 6,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 36,98</t>
+          <t>-10,52; 40,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 35,7</t>
+          <t>-6,61; 35,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 46,91</t>
+          <t>5,65; 47,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 10,12</t>
+          <t>-10,7; 10,59</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,61</t>
+          <t>6,53; 17,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 17,37</t>
+          <t>5,48; 16,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,59</t>
+          <t>4,03; 15,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,67</t>
+          <t>-4,45; 7,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,35; 54,69</t>
+          <t>16,75; 54,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,76; 50,97</t>
+          <t>14,28; 49,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,06; 39,59</t>
+          <t>9,45; 43,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 10,8</t>
+          <t>-5,21; 9,3</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,86; 15,43</t>
+          <t>5,16; 15,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 9,4</t>
+          <t>-0,71; 9,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,99</t>
+          <t>1,92; 11,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,84; -5,67</t>
+          <t>-15,0; -5,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,08; 37,05</t>
+          <t>11,07; 37,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 24,55</t>
+          <t>-1,62; 23,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,27; 30,87</t>
+          <t>4,37; 29,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,94; -7,22</t>
+          <t>-18,16; -6,96</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,58</t>
+          <t>8,91; 13,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,6</t>
+          <t>6,86; 12,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,35</t>
+          <t>6,34; 11,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,19</t>
+          <t>-6,68; -1,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 37,18</t>
+          <t>22,94; 37,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,86; 29,22</t>
+          <t>16,2; 30,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,75; 28,45</t>
+          <t>15,14; 28,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -1,57</t>
+          <t>-8,75; -1,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 12,65</t>
+          <t>-3,86; 12,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 17,91</t>
+          <t>0,21; 18,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 46,84</t>
+          <t>-11,26; 46,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 41,72</t>
+          <t>0,08; 43,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 19,47</t>
+          <t>7,48; 19,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,92</t>
+          <t>2,84; 15,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 17,16</t>
+          <t>4,52; 17,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,9; 50,22</t>
+          <t>15,55; 49,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 40,06</t>
+          <t>5,81; 38,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 48,08</t>
+          <t>10,83; 48,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 20,42</t>
+          <t>5,12; 20,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 19,02</t>
+          <t>1,91; 18,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 17,35</t>
+          <t>2,47; 17,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,34; 76,17</t>
+          <t>15,19; 75,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 57,5</t>
+          <t>5,98; 56,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 54,47</t>
+          <t>5,96; 54,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 21,45</t>
+          <t>7,96; 21,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,26</t>
+          <t>6,35; 17,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 17,54</t>
+          <t>3,1; 17,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 68,97</t>
+          <t>20,79; 71,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 43,92</t>
+          <t>14,57; 45,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 46,51</t>
+          <t>7,05; 47,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 22,54</t>
+          <t>3,29; 23,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 22,28</t>
+          <t>4,19; 24,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 15,87</t>
+          <t>-4,57; 15,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 61,82</t>
+          <t>7,26; 62,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 51,22</t>
+          <t>7,53; 56,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 39,3</t>
+          <t>-9,92; 39,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 13,07</t>
+          <t>-4,11; 12,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 13,69</t>
+          <t>-3,43; 13,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 19,63</t>
+          <t>2,27; 19,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 40,44</t>
+          <t>-10,15; 40,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 35,44</t>
+          <t>-6,79; 35,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 47,31</t>
+          <t>4,01; 46,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 17,58</t>
+          <t>6,41; 17,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 16,63</t>
+          <t>6,03; 17,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,2</t>
+          <t>3,97; 14,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,75; 54,91</t>
+          <t>17,37; 57,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,28; 49,08</t>
+          <t>14,93; 50,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,45; 43,07</t>
+          <t>9,21; 40,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,51</t>
+          <t>4,95; 15,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,11</t>
+          <t>-0,18; 9,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,54</t>
+          <t>1,94; 11,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,07; 37,85</t>
+          <t>10,59; 37,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 23,92</t>
+          <t>-0,33; 26,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,37; 29,8</t>
+          <t>4,49; 30,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,65</t>
+          <t>8,84; 13,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,02</t>
+          <t>6,71; 11,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,33</t>
+          <t>6,38; 11,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,94; 37,47</t>
+          <t>22,37; 37,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,2; 30,45</t>
+          <t>16,05; 29,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,14; 28,41</t>
+          <t>14,82; 29,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 12,45</t>
+          <t>-4,04; 12,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 18,03</t>
+          <t>1,0; 18,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 4,58</t>
+          <t>-10,3; 5,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 46,45</t>
+          <t>-11,06; 47,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 43,63</t>
+          <t>1,93; 43,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 10,39</t>
+          <t>-19,57; 12,35</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 19,7</t>
+          <t>6,64; 19,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 15,32</t>
+          <t>2,62; 15,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 17,0</t>
+          <t>4,03; 16,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,54</t>
+          <t>-9,04; 2,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 49,93</t>
+          <t>14,16; 49,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 38,43</t>
+          <t>5,8; 38,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,83; 48,88</t>
+          <t>10,41; 47,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 3,35</t>
+          <t>-10,76; 3,01</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 20,22</t>
+          <t>5,48; 20,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 18,76</t>
+          <t>3,17; 18,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 17,17</t>
+          <t>2,36; 17,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 1,0</t>
+          <t>-11,89; 1,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 75,96</t>
+          <t>16,05; 75,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 56,87</t>
+          <t>7,35; 53,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,45</t>
+          <t>5,48; 55,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 1,56</t>
+          <t>-16,36; 1,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 21,65</t>
+          <t>7,54; 22,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 17,46</t>
+          <t>6,75; 17,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 17,62</t>
+          <t>2,67; 17,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -0,6</t>
+          <t>-17,82; -0,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 71,11</t>
+          <t>19,62; 70,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,57; 45,26</t>
+          <t>14,45; 44,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 47,77</t>
+          <t>5,72; 45,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -1,42</t>
+          <t>-25,86; -1,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 23,2</t>
+          <t>3,91; 23,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 24,39</t>
+          <t>2,69; 22,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 15,29</t>
+          <t>-4,29; 14,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,52</t>
+          <t>-4,51; 2,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 62,41</t>
+          <t>8,3; 63,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 56,0</t>
+          <t>4,99; 50,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 39,83</t>
+          <t>-8,76; 35,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 2,74</t>
+          <t>-4,7; 2,86</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 12,72</t>
+          <t>-3,84; 12,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 13,81</t>
+          <t>-2,86; 13,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 19,96</t>
+          <t>2,13; 19,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 6,61</t>
+          <t>-8,44; 6,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 40,13</t>
+          <t>-9,79; 36,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 35,81</t>
+          <t>-5,96; 35,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 46,43</t>
+          <t>4,44; 46,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 10,59</t>
+          <t>-11,97; 10,12</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 17,79</t>
+          <t>6,88; 17,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,03; 17,25</t>
+          <t>6,23; 17,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 14,44</t>
+          <t>3,75; 14,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 7,49</t>
+          <t>-4,25; 8,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,37; 57,7</t>
+          <t>18,35; 54,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,93; 50,77</t>
+          <t>15,76; 50,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,21; 40,52</t>
+          <t>9,06; 39,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 9,3</t>
+          <t>-4,96; 10,8</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,32</t>
+          <t>4,86; 15,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,71</t>
+          <t>-0,55; 9,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,94; 11,8</t>
+          <t>2,28; 11,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -5,43</t>
+          <t>-14,84; -5,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 37,15</t>
+          <t>10,08; 37,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 26,24</t>
+          <t>-1,49; 24,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,49; 30,14</t>
+          <t>5,27; 30,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -6,96</t>
+          <t>-17,94; -7,22</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,76</t>
+          <t>8,68; 13,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,49</t>
+          <t>6,63; 11,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,53</t>
+          <t>6,59; 11,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -1,24</t>
+          <t>-6,85; -1,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,37; 37,43</t>
+          <t>22,0; 37,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,05; 29,13</t>
+          <t>15,86; 29,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,82; 29,04</t>
+          <t>15,75; 28,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -1,66</t>
+          <t>-8,92; -1,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>9,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 12,99</t>
+          <t>-0,14; 17,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,29; 24,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 18,15</t>
+          <t>3,99; 19,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 5,15</t>
+          <t>-2,17; 13,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 47,75</t>
+          <t>-0,28; 45,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,16; 43,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 43,07</t>
+          <t>6,52; 38,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 12,35</t>
+          <t>-3,41; 22,73</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,3</t>
+          <t>18,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>13,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 19,2</t>
+          <t>12,26; 24,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 15,46</t>
+          <t>11,56; 23,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 16,69</t>
+          <t>7,32; 19,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 2,24</t>
+          <t>-1,48; 11,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 49,56</t>
+          <t>24,29; 56,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 38,54</t>
+          <t>20,95; 48,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 47,73</t>
+          <t>12,41; 37,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 3,01</t>
+          <t>-3,27; 33,35</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>23,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 20,38</t>
+          <t>15,51; 30,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 18,35</t>
+          <t>1,51; 16,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 17,44</t>
+          <t>1,5; 16,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 1,05</t>
+          <t>-4,83; 10,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 75,03</t>
+          <t>32,07; 77,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 53,16</t>
+          <t>1,98; 29,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 55,23</t>
+          <t>2,85; 35,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 1,73</t>
+          <t>-9,2; 22,96</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,71</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,32 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,49</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,03%</t>
+          <t>-8,95%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 22,09</t>
+          <t>10,46; 24,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 17,6</t>
+          <t>4,66; 18,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 17,48</t>
+          <t>6,14; 20,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -0,68</t>
+          <t>-23,75; 7,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 70,8</t>
+          <t>18,82; 51,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 44,35</t>
+          <t>7,52; 34,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 45,94</t>
+          <t>9,86; 37,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,86; -1,24</t>
+          <t>-47,09; 17,6</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>25,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>14,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 23,07</t>
+          <t>6,68; 25,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 22,24</t>
+          <t>17,64; 35,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 14,4</t>
+          <t>1,4; 20,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,65</t>
+          <t>-6,36; 7,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 63,6</t>
+          <t>11,78; 59,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 50,89</t>
+          <t>28,56; 71,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 35,94</t>
+          <t>2,39; 43,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,86</t>
+          <t>-40,75; 72,94</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,58</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 12,09</t>
+          <t>4,67; 22,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 13,8</t>
+          <t>7,66; 22,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 19,53</t>
+          <t>2,56; 20,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 6,27</t>
+          <t>-7,81; 7,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 36,98</t>
+          <t>8,87; 48,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 35,7</t>
+          <t>11,27; 39,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 46,91</t>
+          <t>7,01; 48,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 10,12</t>
+          <t>-12,69; 13,87</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,48</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,55</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>20,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>62,56%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,61</t>
+          <t>9,86; 20,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 17,37</t>
+          <t>5,3; 16,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,59</t>
+          <t>6,14; 17,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,67</t>
+          <t>4,38; 45,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,35; 54,69</t>
+          <t>20,25; 47,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,76; 50,97</t>
+          <t>8,97; 29,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,06; 39,59</t>
+          <t>13,37; 42,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 10,8</t>
+          <t>12,37; 152,49</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>20,45</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>82,79%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,86; 15,43</t>
+          <t>6,63; 16,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 9,4</t>
+          <t>6,58; 16,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,99</t>
+          <t>4,93; 15,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,84; -5,67</t>
+          <t>9,87; 35,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,08; 37,05</t>
+          <t>12,09; 34,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 24,55</t>
+          <t>13,13; 36,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,27; 30,87</t>
+          <t>9,22; 31,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,94; -7,22</t>
+          <t>29,65; 312,62</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>13,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>25,71%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,58</t>
+          <t>13,23; 18,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,6</t>
+          <t>11,17; 16,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,35</t>
+          <t>9,02; 13,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,19</t>
+          <t>3,9; 23,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 37,18</t>
+          <t>26,86; 38,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,86; 29,22</t>
+          <t>19,68; 29,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,75; 28,45</t>
+          <t>17,1; 27,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -1,57</t>
+          <t>9,89; 72,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 17,79</t>
+          <t>0,16; 17,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 24,81</t>
+          <t>9,86; 24,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 19,83</t>
+          <t>3,49; 20,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 13,62</t>
+          <t>-1,86; 13,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 45,45</t>
+          <t>0,09; 44,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 43,58</t>
+          <t>14,56; 43,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 38,18</t>
+          <t>6,13; 39,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 22,73</t>
+          <t>-2,59; 23,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 24,75</t>
+          <t>12,35; 24,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 23,75</t>
+          <t>10,76; 23,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 19,78</t>
+          <t>7,01; 19,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 11,81</t>
+          <t>-0,99; 11,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,29; 56,67</t>
+          <t>25,12; 57,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,95; 48,81</t>
+          <t>19,66; 47,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 37,12</t>
+          <t>11,39; 36,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 33,35</t>
+          <t>-2,26; 32,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 30,55</t>
+          <t>15,73; 30,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 16,38</t>
+          <t>1,85; 16,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 16,97</t>
+          <t>0,51; 16,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 10,0</t>
+          <t>-5,3; 9,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,07; 77,26</t>
+          <t>32,09; 77,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 29,2</t>
+          <t>3,39; 30,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 35,79</t>
+          <t>1,04; 33,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 22,96</t>
+          <t>-9,93; 21,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 24,45</t>
+          <t>10,69; 24,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 18,83</t>
+          <t>4,55; 19,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 20,22</t>
+          <t>6,21; 19,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 7,42</t>
+          <t>-22,66; 8,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,82; 51,26</t>
+          <t>18,9; 51,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 34,36</t>
+          <t>7,18; 36,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 37,64</t>
+          <t>9,81; 36,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 17,6</t>
+          <t>-46,76; 19,19</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 25,82</t>
+          <t>6,25; 25,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 35,16</t>
+          <t>17,3; 34,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 20,51</t>
+          <t>2,5; 20,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 7,89</t>
+          <t>-5,92; 7,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 59,16</t>
+          <t>11,29; 58,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,56; 71,06</t>
+          <t>27,63; 69,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 43,73</t>
+          <t>4,08; 43,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 72,94</t>
+          <t>-38,33; 66,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 22,48</t>
+          <t>5,22; 22,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 22,81</t>
+          <t>6,94; 22,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 20,83</t>
+          <t>4,05; 21,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 7,58</t>
+          <t>-7,75; 7,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 48,63</t>
+          <t>9,35; 49,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 39,27</t>
+          <t>10,34; 39,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 48,49</t>
+          <t>7,74; 48,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 13,87</t>
+          <t>-12,41; 14,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,67</t>
+          <t>10,65; 22,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,3; 16,23</t>
+          <t>5,26; 16,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 17,66</t>
+          <t>6,59; 17,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 45,57</t>
+          <t>4,12; 42,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,25; 47,96</t>
+          <t>21,73; 52,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 29,9</t>
+          <t>8,6; 30,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 42,5</t>
+          <t>13,68; 42,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,37; 152,49</t>
+          <t>11,3; 141,87</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,63; 16,81</t>
+          <t>7,11; 17,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,32</t>
+          <t>5,5; 16,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 15,4</t>
+          <t>5,16; 14,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,87; 35,66</t>
+          <t>10,03; 35,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,09; 34,12</t>
+          <t>13,34; 35,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,13; 36,34</t>
+          <t>11,05; 36,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,22; 31,91</t>
+          <t>9,48; 30,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,65; 312,62</t>
+          <t>28,86; 300,66</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,23; 18,14</t>
+          <t>13,35; 18,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,05</t>
+          <t>11,25; 15,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,72</t>
+          <t>9,14; 13,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 23,07</t>
+          <t>3,84; 21,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,86; 38,63</t>
+          <t>27,26; 38,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,68; 29,71</t>
+          <t>19,91; 29,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,1; 27,02</t>
+          <t>17,13; 26,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,89; 72,41</t>
+          <t>9,4; 65,91</t>
         </is>
       </c>
     </row>
